--- a/Intermediate I/Week 3/workbook/W3_V2 CreateNamedRanges.xlsx
+++ b/Intermediate I/Week 3/workbook/W3_V2 CreateNamedRanges.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\Freelance Training\Maquarie Uni\MOOCS\Course2\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foongmin\Desktop\excel-skills-for-business\Intermediate I\Week 3\workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149EFF8D-C43C-4604-9DA4-F2AF6CF0218F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24686" windowHeight="11640"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,33 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Staff!$A$4:$H$24</definedName>
+    <definedName name="Annual_Salary">Staff!$N$4:$N$38</definedName>
+    <definedName name="Date_of_Hire">Staff!$F$4:$F$38</definedName>
+    <definedName name="Department">Staff!$H$4:$H$38</definedName>
+    <definedName name="Email">Staff!$E$4:$E$38</definedName>
+    <definedName name="EmpID">Staff!$A$4:$A$38</definedName>
+    <definedName name="Extension">Staff!$K$4:$K$38</definedName>
+    <definedName name="First">Staff!$C$4:$C$38</definedName>
+    <definedName name="Floor">Staff!$J$4:$J$38</definedName>
+    <definedName name="Gender">Staff!$D$4:$D$38</definedName>
+    <definedName name="Last_Review">Staff!$L$4:$L$38</definedName>
+    <definedName name="Location">Staff!$I$4:$I$38</definedName>
+    <definedName name="Next_Review">Staff!$M$4:$M$38</definedName>
     <definedName name="Pension_Rate">Staff!$P$1</definedName>
+    <definedName name="Years_Service">Staff!$G$4:$G$38</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -538,7 +560,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1027,32 +1049,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A4:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.84375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.765625" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.15234375" customWidth="1"/>
+    <col min="5" max="5" width="30.1796875" customWidth="1"/>
     <col min="6" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.23046875" customWidth="1"/>
-    <col min="8" max="8" width="17.69140625" customWidth="1"/>
-    <col min="9" max="9" width="16.07421875" customWidth="1"/>
-    <col min="10" max="10" width="10.4609375" customWidth="1"/>
-    <col min="11" max="11" width="12.765625" customWidth="1"/>
-    <col min="12" max="13" width="14.15234375" customWidth="1"/>
-    <col min="14" max="14" width="12.4609375" customWidth="1"/>
-    <col min="15" max="15" width="11.07421875" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" customWidth="1"/>
+    <col min="12" max="13" width="14.1796875" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:16" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A1" s="16" t="s">
         <v>117</v>
       </c>
@@ -1063,7 +1085,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="31.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1132,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1154,7 @@
       </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G38" ca="1" si="1">YEARFRAC(F4,TODAY())</f>
-        <v>16.402777777777779</v>
+        <v>19.372222222222224</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>33</v>
@@ -1159,11 +1181,11 @@
         <v>101400</v>
       </c>
       <c r="O4" s="15">
-        <f>N4*Pension_Rate</f>
+        <f t="shared" ref="O4:O38" si="5">N4*Pension_Rate</f>
         <v>9126</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1185,7 +1207,7 @@
       </c>
       <c r="G5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>16.330555555555556</v>
+        <v>19.3</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>80</v>
@@ -1212,11 +1234,11 @@
         <v>70300</v>
       </c>
       <c r="O5" s="15">
-        <f>N5*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>6327</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1238,7 +1260,7 @@
       </c>
       <c r="G6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>14.791666666666666</v>
+        <v>17.761111111111113</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>72</v>
@@ -1265,11 +1287,11 @@
         <v>68800</v>
       </c>
       <c r="O6" s="15">
-        <f>N6*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>6192</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -1291,7 +1313,7 @@
       </c>
       <c r="G7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>13.177777777777777</v>
+        <v>16.147222222222222</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>35</v>
@@ -1318,11 +1340,11 @@
         <v>59200</v>
       </c>
       <c r="O7" s="15">
-        <f>N7*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5328</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>86</v>
       </c>
@@ -1344,7 +1366,7 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.947222222222223</v>
+        <v>14.916666666666666</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>72</v>
@@ -1371,11 +1393,11 @@
         <v>62900</v>
       </c>
       <c r="O8" s="15">
-        <f>N8*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5661</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>87</v>
       </c>
@@ -1397,7 +1419,7 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.41388888888889</v>
+        <v>14.383333333333333</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>35</v>
@@ -1424,11 +1446,11 @@
         <v>58400</v>
       </c>
       <c r="O9" s="15">
-        <f>N9*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5256</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -1450,7 +1472,7 @@
       </c>
       <c r="G10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.261111111111111</v>
+        <v>14.230555555555556</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>72</v>
@@ -1477,11 +1499,11 @@
         <v>59200</v>
       </c>
       <c r="O10" s="15">
-        <f>N10*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5328</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>89</v>
       </c>
@@ -1503,7 +1525,7 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>10.65</v>
+        <v>13.619444444444444</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>20</v>
@@ -1530,11 +1552,11 @@
         <v>51600</v>
       </c>
       <c r="O11" s="15">
-        <f>N11*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4644</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>90</v>
       </c>
@@ -1556,7 +1578,7 @@
       </c>
       <c r="G12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2027777777777775</v>
+        <v>12.172222222222222</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>72</v>
@@ -1583,11 +1605,11 @@
         <v>58200</v>
       </c>
       <c r="O12" s="15">
-        <f>N12*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5238</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>91</v>
       </c>
@@ -1609,7 +1631,7 @@
       </c>
       <c r="G13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8333333333333339</v>
+        <v>11.802777777777777</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>35</v>
@@ -1636,11 +1658,11 @@
         <v>55800</v>
       </c>
       <c r="O13" s="15">
-        <f>N13*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5022</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>92</v>
       </c>
@@ -1662,7 +1684,7 @@
       </c>
       <c r="G14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5361111111111114</v>
+        <v>10.505555555555556</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>72</v>
@@ -1689,11 +1711,11 @@
         <v>55500</v>
       </c>
       <c r="O14" s="15">
-        <f>N14*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4995</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>93</v>
       </c>
@@ -1715,7 +1737,7 @@
       </c>
       <c r="G15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.375</v>
+        <v>10.344444444444445</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>80</v>
@@ -1742,11 +1764,11 @@
         <v>48400</v>
       </c>
       <c r="O15" s="15">
-        <f>N15*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4356</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>94</v>
       </c>
@@ -1768,7 +1790,7 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3472222222222223</v>
+        <v>9.3166666666666664</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>72</v>
@@ -1795,11 +1817,11 @@
         <v>59300</v>
       </c>
       <c r="O16" s="15">
-        <f>N16*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5337</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>95</v>
       </c>
@@ -1821,7 +1843,7 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0194444444444448</v>
+        <v>8.9888888888888889</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>72</v>
@@ -1848,11 +1870,11 @@
         <v>56000</v>
       </c>
       <c r="O17" s="15">
-        <f>N17*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5040</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>96</v>
       </c>
@@ -1874,7 +1896,7 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.25</v>
+        <v>8.219444444444445</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>22</v>
@@ -1901,11 +1923,11 @@
         <v>63200</v>
       </c>
       <c r="O18" s="15">
-        <f>N18*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5688</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>97</v>
       </c>
@@ -1927,7 +1949,7 @@
       </c>
       <c r="G19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7583333333333337</v>
+        <v>7.7277777777777779</v>
       </c>
       <c r="H19" t="s">
         <v>80</v>
@@ -1954,11 +1976,11 @@
         <v>51700</v>
       </c>
       <c r="O19" s="15">
-        <f>N19*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4653</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>98</v>
       </c>
@@ -1980,7 +2002,7 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6611111111111114</v>
+        <v>7.6305555555555555</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>80</v>
@@ -2007,11 +2029,11 @@
         <v>49600</v>
       </c>
       <c r="O20" s="15">
-        <f>N20*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4464</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>99</v>
       </c>
@@ -2033,7 +2055,7 @@
       </c>
       <c r="G21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1361111111111111</v>
+        <v>7.1055555555555552</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>35</v>
@@ -2060,11 +2082,11 @@
         <v>45100</v>
       </c>
       <c r="O21" s="15">
-        <f>N21*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4059</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>100</v>
       </c>
@@ -2086,7 +2108,7 @@
       </c>
       <c r="G22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0777777777777779</v>
+        <v>6.0472222222222225</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>17</v>
@@ -2113,11 +2135,11 @@
         <v>42100</v>
       </c>
       <c r="O22" s="15">
-        <f>N22*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>3789</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>101</v>
       </c>
@@ -2139,7 +2161,7 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7916666666666665</v>
+        <v>5.7611111111111111</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>20</v>
@@ -2166,11 +2188,11 @@
         <v>62800</v>
       </c>
       <c r="O23" s="15">
-        <f>N23*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5652</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>102</v>
       </c>
@@ -2192,7 +2214,7 @@
       </c>
       <c r="G24" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7638888888888888</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>72</v>
@@ -2219,11 +2241,11 @@
         <v>54700</v>
       </c>
       <c r="O24" s="15">
-        <f>N24*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4923</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>103</v>
       </c>
@@ -2245,7 +2267,7 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6194444444444445</v>
+        <v>5.5888888888888886</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>72</v>
@@ -2272,11 +2294,11 @@
         <v>52600</v>
       </c>
       <c r="O25" s="15">
-        <f>N25*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4734</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>104</v>
       </c>
@@ -2298,7 +2320,7 @@
       </c>
       <c r="G26" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5277777777777777</v>
+        <v>5.4972222222222218</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>20</v>
@@ -2325,11 +2347,11 @@
         <v>58500</v>
       </c>
       <c r="O26" s="15">
-        <f>N26*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5265</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>105</v>
       </c>
@@ -2351,7 +2373,7 @@
       </c>
       <c r="G27" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4916666666666667</v>
+        <v>5.4611111111111112</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>72</v>
@@ -2378,11 +2400,11 @@
         <v>46500</v>
       </c>
       <c r="O27" s="15">
-        <f>N27*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4185</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>106</v>
       </c>
@@ -2404,7 +2426,7 @@
       </c>
       <c r="G28" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1666666666666665</v>
+        <v>5.1361111111111111</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>72</v>
@@ -2431,11 +2453,11 @@
         <v>56200</v>
       </c>
       <c r="O28" s="15">
-        <f>N28*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5058</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>107</v>
       </c>
@@ -2457,7 +2479,7 @@
       </c>
       <c r="G29" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8722222222222222</v>
+        <v>4.8416666666666668</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>20</v>
@@ -2484,11 +2506,11 @@
         <v>54900</v>
       </c>
       <c r="O29" s="15">
-        <f>N29*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4941</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>108</v>
       </c>
@@ -2510,7 +2532,7 @@
       </c>
       <c r="G30" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8694444444444445</v>
+        <v>4.8388888888888886</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>22</v>
@@ -2537,11 +2559,11 @@
         <v>47900</v>
       </c>
       <c r="O30" s="15">
-        <f>N30*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4311</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>109</v>
       </c>
@@ -2563,7 +2585,7 @@
       </c>
       <c r="G31" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6194444444444445</v>
+        <v>4.5888888888888886</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>72</v>
@@ -2590,11 +2612,11 @@
         <v>49600</v>
       </c>
       <c r="O31" s="15">
-        <f>N31*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4464</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>110</v>
       </c>
@@ -2616,7 +2638,7 @@
       </c>
       <c r="G32" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6111111111111112</v>
+        <v>4.5805555555555557</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>72</v>
@@ -2643,11 +2665,11 @@
         <v>35600</v>
       </c>
       <c r="O32" s="15">
-        <f>N32*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>3204</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>111</v>
       </c>
@@ -2669,7 +2691,7 @@
       </c>
       <c r="G33" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4833333333333334</v>
+        <v>4.4527777777777775</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>80</v>
@@ -2696,11 +2718,11 @@
         <v>58500</v>
       </c>
       <c r="O33" s="15">
-        <f>N33*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5265</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>112</v>
       </c>
@@ -2722,7 +2744,7 @@
       </c>
       <c r="G34" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4472222222222222</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>72</v>
@@ -2749,11 +2771,11 @@
         <v>51400</v>
       </c>
       <c r="O34" s="15">
-        <f>N34*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4626</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>113</v>
       </c>
@@ -2775,7 +2797,7 @@
       </c>
       <c r="G35" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60833333333333328</v>
+        <v>3.5777777777777779</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>22</v>
@@ -2802,11 +2824,11 @@
         <v>38600</v>
       </c>
       <c r="O35" s="15">
-        <f>N35*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>3474</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>114</v>
       </c>
@@ -2828,7 +2850,7 @@
       </c>
       <c r="G36" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52500000000000002</v>
+        <v>3.4944444444444445</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>72</v>
@@ -2855,11 +2877,11 @@
         <v>40500</v>
       </c>
       <c r="O36" s="15">
-        <f>N36*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>3645</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>115</v>
       </c>
@@ -2881,7 +2903,7 @@
       </c>
       <c r="G37" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4611111111111112</v>
+        <v>10.430555555555555</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>33</v>
@@ -2908,11 +2930,11 @@
         <v>96400</v>
       </c>
       <c r="O37" s="15">
-        <f>N37*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>8676</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>116</v>
       </c>
@@ -2934,7 +2956,7 @@
       </c>
       <c r="G38" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10277777777777777</v>
+        <v>3.0722222222222224</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>35</v>
@@ -2961,12 +2983,12 @@
         <v>37000</v>
       </c>
       <c r="O38" s="15">
-        <f>N38*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>3330</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:N38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N38">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2975,46 +2997,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.69140625" customWidth="1"/>
-    <col min="2" max="2" width="17.84375" customWidth="1"/>
+    <col min="1" max="1" width="29.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.15" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:2" ht="22.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:2" ht="22.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>160</v>
       </c>
       <c r="B4" s="12"/>
     </row>
-    <row r="5" spans="1:2" ht="22.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B5" s="12"/>
     </row>
-    <row r="6" spans="1:2" ht="22.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>162</v>
       </c>
